--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/6_Amasya_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/6_Amasya_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5C9F89-0B80-4580-97A1-25BA10550D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B06E4780-0303-48CA-A883-3E062DE7FA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{2D8EB21F-0778-4BC0-A848-DAF559314E92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{4A37B31F-C0C3-420B-BC2A-D94EC7BE4393}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -965,15 +965,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{ED38433F-D24D-414C-AAB4-AFC1604A6934}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3F8EDEB3-A57E-452D-BDEE-EC564E535E2A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{5A5D08EB-B407-474F-B7B1-ECDB7503024A}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E16921FA-B1BB-4327-833D-86CFF6FBD90A}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{7035BA2D-523C-41C5-BC5E-36202C0BF438}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{894D2B71-7A5A-42B5-886E-21C4C4C962AF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{DA8263F9-85F7-45A7-95B2-4599BA72C122}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{7A917A3A-00C3-430C-9E17-5E37D463B1C4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{92CDB695-AA27-4EA8-B3BC-682BD16F8300}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{229F51B0-AEAF-474A-B6FA-A1674A6D04B6}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E637F1D4-B954-4666-82F9-351FBA445796}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{7CA1228F-A3FD-44A6-8FF3-6B983D9C9CDA}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{057EDA1A-7568-480D-A976-7606F011BF2D}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{9D47088D-FA09-4CD5-BDF0-2873FDA850E4}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{9F1E60CA-F6B1-4DD7-A07B-A43E1C99DC0C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{27414F6C-EDF1-421C-B2C4-9441ADF65B43}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{12F7F7F2-495E-41E8-AE9C-68DF76776145}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{12308AEE-F307-44D6-B026-74F91731A0CA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1343,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF60928-3D60-4A2C-A27C-6773DF1B2BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B352E2E9-A8A2-44D3-98FE-32B76EB007CE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2605,18 +2605,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DBFE5E93-1429-4D14-8443-8C0A854FA93E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0872D3B-E7EE-4217-ABFB-48329766916E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70B8B6F9-FF15-485F-89B0-62A5135A8294}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9CB6FE35-34E3-426C-BB42-34EC7DE68FFD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{39CE0436-FD38-4C04-BA8B-186AB69753B3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A617D0B7-2CED-4885-969A-9390873C22CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0C35128-C12C-46EC-B004-037097242990}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33009217-6552-4F70-B98D-C004B6A0CE2E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9CFFED26-4F17-4FE3-BC00-0F269FE4106B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F0BBE918-C787-4906-917E-E2FC044AA9CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D60E411C-A19D-447C-94F6-A77A613099D3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9427A56D-760A-4EE5-B04A-421A31F5A042}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A554444-A735-4F3F-A8B4-D731733B6530}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7148A3B6-E6FB-4ECB-9E62-3E2520188F3E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F854D8D-3728-4FE2-9D19-1C838F7DBE1C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1766F7E6-5745-4392-81C7-0DF2E7D22094}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1BD1ACB-8152-46E5-8F10-5B1D93E98377}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E561ECAA-64A5-4F6C-B3EF-04093AD6D09A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC4765B2-56C6-4E59-83EA-C748B4644B0D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DDC07910-E675-4F16-B52E-C047E74811F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A5D9AECA-43FF-43FC-A365-A1CB6A14D4E3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6E79F184-8DB0-4987-9571-7ABDC16B193E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE8295E1-FDEA-43CB-8B1A-5A01F9984049}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0222CE6A-0F7E-46AB-930F-8D57E99B39DD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2629,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F578A07-A320-4FB1-AA01-323F94B8BBEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F23AE3-0B33-4707-93DF-B7B206927504}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3926,18 +3926,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42A429F5-2776-484B-9CC2-6BCD9B2251AD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6BCE3009-48A5-416B-908C-8E0442AA7F4E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C1002099-075E-4D86-B942-66B08666B350}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{886DA93D-0114-47A0-B241-973E76441C16}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB555BD3-DC5C-4A47-84D9-19D44C035FE3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{62D96767-E288-41E9-81F3-71320D8698CD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B7B4F850-91AD-4672-88B1-302723AFE6DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C1B5B25-D394-4EC1-B4B9-CF60841D75A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0BCA6CC-1F51-4DE4-9F3F-B55A1AE09B16}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1F9DAE53-D7B1-4991-B219-8DAE5F79AF00}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4AF077BF-263E-4140-99BB-8D42043CCED5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB2C8772-B844-4BDA-A41B-8D1A91B812D2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{480FFB7E-5FC6-4DE9-B01D-CACF46F65F0C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1625E02C-525B-4DC3-9CF0-B8ECA930962F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3449AAF3-3C0B-47AD-A512-26D0B11E6C09}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC0ED269-858E-446C-9C35-DB7ACFD447B3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{69B6C967-A070-43D1-8945-811DEBB9ADF2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{65E60C02-A4AA-4AFD-A3C8-8213DAF0CD5F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0279985E-EE20-40C9-828D-27611A32E9D2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D76279FE-4F2A-4748-847F-077BBAE0E757}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42D78023-E40F-4599-852E-21DCCB5D94FE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{90605C3B-9146-4FE3-AE34-678F4EC0B2CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D99C3543-B0F6-483A-91D3-EFA72BECBCFA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D258A9D-6629-448C-A8C3-ACE76A44DD39}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3950,7 +3950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97D0E5F-9698-45FD-97DF-B6ED06580BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0A2781-5F0C-4678-A2CD-92185996049F}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5241,18 +5241,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E13371D-4FCF-4F63-95E7-303F5C0FDBB9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7AAE7A8F-52AF-42BA-AF2D-61292E42F63C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C58B19ED-3A64-409D-B8D4-863A59B30B03}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{30D607B6-44B0-4A98-9A04-6BFADD5ECAD5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90143C66-8E40-4482-B3DB-A661208BD0FF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5A315FD3-4B28-4321-868B-FD9D068A3482}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2BCF9FDD-3641-4068-B592-BC9E07D021DE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{40C09EEF-5D79-45B7-983D-82315606077D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3190656B-AE8E-42E6-8DFC-400FE7EFC9AB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1D0CB9F8-ABF4-4C52-8989-F9E25A268312}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E279F55-FFFD-409E-9263-DC93CDBFEA7B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28BA1F92-1449-4F19-825D-6D080BAA56F7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D46FD57-3C35-41DA-A518-2262947ECEB0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F79D7D05-2C0A-45CE-97D5-EBD58DB556FE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2DF530C7-74BB-4D58-A16D-DB0E4379523B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DE578FD8-F774-49EB-892C-1E9FE804174E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{237D86B4-FD51-4338-988F-7EE51E3D6967}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8E67AC52-4710-4997-80B3-CAC7EA6A9CFD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9662BBED-5F0B-4E7F-8A96-4E297229A94D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{068E69C6-46D3-4B48-9A95-83E7A5A5AB3C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{954F5B4F-C107-4D7F-ACC9-2B273A3CF7DD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CFEAA965-C5AF-4041-B0F1-70100C7E5A4D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8CE47FBF-1BB4-4F58-BFD0-17FDD0020795}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4953F283-1AEB-4875-87F8-DC2BEF833AA1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5265,7 +5265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F62611-0830-498F-9D6C-500C6F04F307}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6606AF-4AC1-4760-9243-F7313F0CD215}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6552,18 +6552,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{80721843-A818-4038-8A43-1D3C1B460620}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{349A1B03-81CB-4B32-8F9B-F92FA2E85A84}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B2E43CED-C771-4DD7-96CD-29C0B4CC5F26}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D5DC9938-8A05-441F-B72C-6B871FCA66E2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D27F3E8A-01C3-4BAD-AC86-1C7BC39AC920}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FE1C6B60-DC0C-4E70-B23E-20CC26C88B62}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2A98F92-AAA8-4FA9-8F15-6DF4BCDB87BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B97B250-8476-4DBC-90FB-60FA90CDBC96}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A03C4ABE-6B29-45BC-B5D9-2E6C88AB1A8D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B49179E0-F921-4422-9622-79F92F07B3B8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{73231B3B-EB25-43D4-AE66-F4FF3C7FBD7E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D89C747B-513B-47D8-95A1-C4E840A8312B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C4B37C1A-0B92-4F02-B563-392866D65662}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7EB85895-5364-4889-B154-774E9441A9C8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E35C1BDC-4060-4CF8-8A3C-CB17DE4263E0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A6523D99-8641-4ECF-974B-41F8BD521C1E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{506AFFA9-B631-4B05-B0CD-3D31D4B3B4A7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{733500C7-A320-4C1A-998F-5EB032238ACE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9824BCF-EC03-4506-B706-EB7D4AEFF106}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{439AE80D-35A6-4282-AEF5-38B3CD5E68DE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9E51FD6-F875-4494-B842-C6816CDCDAB1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3DEE48ED-C5D7-4E69-AC8E-C607496184F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C6EFD8B-DACE-4FF7-AEFA-056B38EFADAE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5CDDAA51-347F-4EE3-A419-E5B306B24679}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6576,7 +6576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8AB603-FBC9-44F3-9516-3A8E4898AF4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD75B3CB-17A7-4152-B1C1-82DA70E3A742}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7840,18 +7840,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D013C8A-0B83-45DC-81CF-A80310F68662}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6732CAFA-EDAD-4655-8880-0EDA5316D02E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6CFE6CF1-7626-408D-BCC3-720EE270CCCE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B2AF16B5-0573-4B05-A05F-AC8D5CE9CE34}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B90ACE1-4BE0-4CFF-94F1-45689362D37C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{30D5B658-BCC9-405C-BBF1-AA828FA14500}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F6FBC56-1702-435A-9EA8-5D394B3C08A6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB2965E3-E45F-46D0-BBDF-54CBE5DB2854}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BB28100-7A71-4E79-8CAF-2D48F73D21C1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F3DF03A5-593F-4731-939B-C49DB43E53FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE9B358F-C126-4904-9427-2530FE5B814A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E013B86C-062E-4805-9953-8DD216D84216}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F576B542-60E3-448A-9865-D56DDCB097BC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA594D7F-E38F-44E3-8A63-97052095E97C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E02ACB35-0761-4554-BEB0-B15CEC278A29}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B6C60814-B57D-42EB-98E7-69807ABF4729}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9AC58046-D5C9-4636-86C9-1143319271C2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A1A93B29-940F-4A62-8251-0A92AA179A82}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA7750CF-5191-4493-809D-DA6FEEF9619F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{169A23A2-3C43-483B-8C01-6D7F52709361}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D95BC0DC-70F6-499E-8953-2E05A0902B30}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DA956BF3-6E14-432F-86D9-0C558FF4AC61}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{691BCE7D-DA72-4FE3-A383-C412BD721DAA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC415E9D-379A-4D7E-AE67-7E0886F0C663}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7864,7 +7864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA565A09-5094-4646-AE5A-312FB9C5CB48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6B7F28-71DD-40F4-84E8-E8498F9FE9C9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9128,18 +9128,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7790EFC0-DC84-4FC6-844D-A4E3927921DE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F6D3DD9-CC58-4093-A605-A495BC853047}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{69E063EF-4EFD-4124-9CCE-D951BE33B766}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{125C5A3F-F3EA-41D2-9345-DAB8E2EFECDA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B5CF4CA-7029-4F3E-8CC4-B604C0A9F8C1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C1412B99-8D59-46B1-97BA-FD0BC07CB999}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F2F5B19-A786-401E-9B34-60009CCE3B84}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A0A2C95-4F71-46CB-8E3C-DD1DAA1B6A6C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{764980EC-FFDB-493F-A470-F71DBC793DD5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A88DB899-8435-4B6E-8774-A03038ABFC7E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B55553F5-1866-4C6B-B1F5-BAA772137BA8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7B20F9A-A551-4916-9CFD-E4030EF9D6DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3355D562-2371-4E6D-B2DA-6A112DBE3D6B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE4CC747-9F46-4C4D-933A-11A3B5ED7EA5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0DEDBA8C-58CE-4934-968C-6DF07CFBF51C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B207A15D-38B3-437D-AA42-380CA8E32406}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77D7A806-113F-4896-B406-F3DD4DA0487A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C81C1177-6709-487A-8A49-0C088B112911}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4BA4F87-3538-4661-A89D-044A35C6815D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4772A7F6-EF10-4D8B-9A6D-59CFE77B08E1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE1C6AE5-7D3E-4639-A6A9-3A19DEF0009F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9D995AF2-61EA-478D-AF9D-EC379DFFE7A5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB46E609-4F83-48FE-9CCC-221E93A9981A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{112CC05B-2F01-438A-B0FD-7E97E3E79FC6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9152,7 +9152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693C79B-0207-4FE1-BD5F-AC3F396FB4A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4DE3F7-697A-47B8-B257-DC2E04755348}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10416,18 +10416,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE0C2355-272B-4C12-927F-83C152A4E1F3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E915846-C53A-4148-89CE-66641043F9BB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B88FB5A6-7ADE-444C-B79D-429576F990CF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9407F469-A6D2-4998-9CE0-6936FE2A7087}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{304D6531-B981-4B18-B4A6-0ED285D6A455}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E56047CB-3CF0-4F6A-8DE6-3A24848EC787}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{550D72F5-B4AB-4E98-86FA-734A21D32450}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F30EA9CE-941E-4B40-941A-DDBBE73A1ABC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F790A35A-CABA-43C3-80E8-0BFC9D438780}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6F6D048C-5C3F-4945-B1D5-EBDA72044058}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8C8FC1A-CCF0-4D09-9597-1CAF5738DBD3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8173E82D-47B7-479B-888A-10575D5AB18D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FEAC65D0-E1A2-4AAF-9759-A40DC9BB8991}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89988B21-410D-473C-B7AA-0274849650FD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FE38717B-0A8B-4B74-AB78-21F0F75AB3F3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{48D360AC-88B6-49A7-AD8D-1DD8CE8C9129}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C0CBC88-4FAE-4A55-9F32-378234CEBBE3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C784878A-65B6-420F-BBCD-2248183C0ED5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7AD4FCD-23FE-472D-B007-11529EC1C23B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2A0DC72-EC53-47F0-AC2F-66BB59E7513F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8CC6D465-AC01-4FA4-8ACF-B85117F1C36A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{68C74F0A-9D48-47DD-AE71-A9624870D9DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CAA180EE-4F2D-455A-AC19-C1397CF99F41}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BA23591-5C9F-4F07-9DA5-A8EB0D557AD5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10440,7 +10440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7899C7C5-DFE3-4E36-B90A-5D113E8CF355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321515B2-45D4-47D5-B6CC-A0B6DEC67C49}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11698,18 +11698,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF0A8CAA-6A0B-47BC-856B-DAF011CB3FD9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C541FD88-6891-4BEC-9AD2-09D8A3A4E627}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5B87F70-D02B-4DEA-BD73-6FFD7E9833C0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C83B9A5-8459-426B-A298-813E05E4E937}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86D132DB-D5CB-4FDE-93A6-B4780497DB7D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A5570F71-595F-40F8-BE0D-11784AC6F258}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{048B78C7-39C2-41CB-AD48-CB494BB66104}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42209EA6-07AF-4E29-9DCA-86323755A90F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D64A4141-E378-4B11-94B4-C07EAAA35DDD}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E1CA680A-E647-4649-B0A6-DE17425EADC4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E412C088-3CF9-409D-A288-2C44964584D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A612189-485B-4F2E-A60D-F7275CCFF5E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA784361-390B-47DD-9C0E-888E2036D82D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D3F119A8-FB19-4873-A747-87826C95EFE7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{995D0200-E909-4887-B24C-5B30A2DDE080}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E91E3C81-0618-48C5-A46D-E72CCFE43059}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E0DC0F4-5F00-4C47-87F3-3B16E2AB3A3F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{12F0D665-387A-4E77-B182-CC6922D20F8C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B386CD29-2A0B-422E-91F1-F2454986F2A4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E463D40-07CD-48C2-89DC-70BEDAA63529}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B4F90D9-A854-497F-B454-A8BDB62ADE6C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{171A6165-6226-434A-B256-261893FA2A65}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{678B9564-0D96-4068-8012-713ECC6200A7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D76377FD-1CE6-475C-BF33-E2FA82AD2C31}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11722,7 +11722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDE67EE-14D4-4A17-81EF-78FF1EAF2C59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBA2C6B-2CD2-42A7-BECB-41C8B2538EB1}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12975,18 +12975,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00C7060C-00D3-4236-8C7E-42A7E39238FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B7BF5EB-5064-4F96-950F-E3B0C91A6ABD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C87D53A-41FE-4D44-9A19-3E200764D4F6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{263D3FEE-1CCE-472E-880D-DAD975300E55}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A944C9CD-C402-4A3A-B414-630CE767BF6D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AABDBBEA-D6FC-4C69-B2BB-9D7F6799BB71}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{144A5480-AEAE-46C5-AB1E-BCD7BC3350E9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2B4C6C7A-CF7F-4612-A701-057F7B857AA7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0701E54-1AE3-4624-A2CD-A6107D2C7423}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2B42D27D-65D9-476B-822E-EFE2D142EAFF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A91140F2-9A75-4313-B002-468435D703CF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08DD6D6B-7169-4128-AE36-913D208C84EF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7CF116A-66A2-462B-B12E-FEEBDCEE7205}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2EB80D91-4A37-4F2C-9572-80B9B0FB6913}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4E93B868-2BE7-451B-9EED-CE79F41C8008}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A8D49FB-BED8-4F93-8204-FD424FF23ACE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83913885-F121-4589-A5DE-01767D676880}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5CACDB63-E3D3-4497-A2BE-446F36DBC2F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CBB93C22-65CC-46B0-8ED8-DAAD795C6A18}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{59FA6462-8A75-446D-8FE6-F5642823EDD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B99779B-3A25-416E-AF12-880150ACA59D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7C19A438-8A89-4FBC-B8D6-184F08AFE003}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C89F89A-F695-481A-B130-AEB6BFF6C74D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E570204-2848-4384-ACF2-E26C21832522}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12999,7 +12999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD61FB05-B425-49E8-A196-ABD8371E45EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D8A278-1780-475F-A4EF-B70523468D75}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14304,18 +14304,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{214AC9A7-4235-4B59-9564-8E4ACAFE65EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F47FD4F-2BA8-4280-9963-B91F244FF642}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8EF31170-DC63-4FDE-B619-A134555CB68E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D910D954-C073-4876-847B-0DAE05BB730D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26887857-C0D9-4D57-98D3-DB60ED0FE513}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8D6F968D-D5AA-4880-99F2-AFDC7B918C77}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8AC96543-DBF5-4019-8499-78569CC4B7F2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2315678C-DF0E-410C-9AE4-39C4CD16EDF2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4295622B-6E5F-4EF1-A37A-CC8E94A1C6D2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7AA54DD6-44F4-452E-83E2-0913ADB382D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC9B9794-BD71-49A9-A22F-A05210D0A861}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9558AFF-1B79-4FBC-B5CC-30F3FF4E90BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{02D0B664-D0AF-4046-831F-C2FDA90DCF93}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E96E74D-BA30-4FD5-A24F-52D5590436FE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CB113699-222B-4E14-A857-EAB938A0071D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D1E2E7C1-A454-4493-86EE-4FFFF666E0C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AEA83FEA-1280-4AFD-AC27-CC3B6E9A95AC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A6D94143-18D8-4A80-91F8-9009C07616F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9BE86EC9-D4CE-4FE2-8E4A-DEC69C8E02E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9775EAEF-57B8-4525-9997-5DAD8EE9DB1B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5518C32C-4BAF-453F-9B32-78BCBD90BD2B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A4566759-4D15-4D85-9A0A-6184A27713AB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A7665D1-A2A6-4684-839F-CA411184A6FF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0EA2145E-E5EE-49A1-80E4-AFC5BD90EA56}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14328,7 +14328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21715EE7-A985-4D7B-8E60-7ECCADCF0CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5FE41B-C811-4E6D-93E5-4A353CF4F4BD}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15633,18 +15633,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7C7169C-5D86-4679-9578-AE78B7D77C92}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7D05419C-1311-480B-98DF-BE9E0267378F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A92196C3-A754-4423-8144-9573CF858F0B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{06C56134-A624-41A4-98DE-2C9D528292EB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{49F7357E-0E1E-44FA-9E11-0A47498AEEC8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{89BD032E-593A-4223-B8AC-0E9BEEDB8A39}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{020395E9-C186-4C6C-92B5-2503F2233300}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F575FBE-55D7-44DF-BA1D-C5321FF900E5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBA44509-E5AF-4DB3-9A72-5EFD5AAC03C8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4F81BD28-4AFC-47AD-B178-2FD8D3784EC2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA19AE47-1EA7-4133-9C3B-8445D06343AA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27B4C793-3A27-4ADD-A9CC-54E404F0A507}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{911B6265-B237-4EAF-AD16-771EB8AB4171}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{94DA64B2-FD88-492E-BEC1-AD7F47C89B87}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F214C01E-FD54-4E59-8BF0-B107E38C86D9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3FEBEA99-8125-474D-A912-7FFA52F2FF28}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53218F74-B605-49B6-91B1-AE282913989F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CDACE542-B516-4340-A9E8-66C849061719}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{264177DD-9CB5-49C7-AFE2-EFDE3F734A93}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F618914-1A88-4DB3-A5FE-DA006E2E7D3D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC7A6609-F4DF-4F66-96CA-55B16F594944}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5B6B7E2A-526A-4B80-B810-C24E096BA98C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9002B954-1858-4617-B24D-071F1688EC49}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F48C8442-4F33-4218-B4BA-6C4F8EA953EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15657,7 +15657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B550CD38-2317-410B-81E4-26D4C1DD5C71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D7D56C-4857-492F-9E52-F98F8FA94B9B}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -16954,18 +16954,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EBF23D33-7CC7-46BE-B6FD-D76F1BAE3F30}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DA04FEB6-835C-42C0-A562-531AF2DB3F39}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DBFCCE64-100E-4278-83D3-2BA225413F58}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8FA4F29-DF5A-42F2-8869-583CFEF41175}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{604B59EC-D179-4113-944C-11D8A7E878B5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B8AEE623-CB1F-404C-8DEA-1B02F6A97079}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54B6308C-07C3-4DEC-8D9D-D96A6CB77D94}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF4920E8-6BD7-4EA9-8619-78B294D0EE4D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20D8C55A-DC7B-4D4A-9021-640901F14F2C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0FB8A614-7618-4D7D-8881-69EA53833B7A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09EBDA7D-8E43-4F1B-A1C6-F0A40CF4B665}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{59434B37-69AA-4E89-834A-2D6F8FCBE11E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A758C80-456C-4A6B-B69A-F10EEAFABB75}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9C3D3AE-11A2-45A8-94EB-147006486B0C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{832C34A5-0E9B-43D4-9012-1DB3D0628003}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DDB0A155-224F-43E1-A16E-B48AF2419995}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7BCCAB3C-73B2-457C-882D-5E3DAE5BF893}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{510605DD-1E80-403D-880E-E8CE4844C85E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A9029C6-B95C-4BC2-80A5-58C148AA6005}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{645960A9-903F-4D08-BE4F-53839E708387}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8DA3321-B4AB-42E4-8ACD-87A73634B492}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4E3A50C0-8F2A-4CA2-A01D-C0F18C711060}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83B47515-2A4D-4629-AD70-EA563DE6D7CA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{878C0438-2C27-4F91-BD0B-96513CFF12AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
